--- a/_Out/NFDataCfg/Excel/SqlServer.xlsx
+++ b/_Out/NFDataCfg/Excel/SqlServer.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>Id</t>
   </si>
@@ -80,13 +67,19 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
     <t>SqlServer_1</t>
   </si>
   <si>
-    <t>000107001</t>
+    <t>8</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -96,20 +89,19 @@
   </si>
   <si>
     <t>app_test</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -130,12 +122,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +292,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -279,9 +603,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -344,17 +910,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -683,32 +1293,33 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.4666666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.46484375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.46484375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.46666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.8" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.46666666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.46666666666667" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -737,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -766,7 +1377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:9">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
@@ -795,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1">
+    <row r="4" s="3" customFormat="1" spans="1:9">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -824,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1">
+    <row r="5" s="3" customFormat="1" spans="1:9">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -853,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1">
+    <row r="6" s="3" customFormat="1" spans="1:9">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -882,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1">
+    <row r="7" s="4" customFormat="1" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -911,9 +1522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1">
+    <row r="8" s="4" customFormat="1" spans="1:9">
       <c r="A8" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -940,9 +1551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1">
+    <row r="9" s="4" customFormat="1" spans="1:9">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -969,9 +1580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1">
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:9">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -984,42 +1595,41 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6">
         <v>7001</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6">
         <v>3306</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="6">
         <v>123456</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:I6 B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/SqlServer.xlsx
+++ b/_Out/NFDataCfg/Excel/SqlServer.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
+    <workbookView windowWidth="29040" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -80,13 +67,19 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
     <t>SqlServer_1</t>
   </si>
   <si>
-    <t>000107001</t>
+    <t>8</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -96,20 +89,19 @@
   </si>
   <si>
     <t>app_test</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -130,12 +122,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +292,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -279,9 +603,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -344,17 +910,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -683,32 +1293,33 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.4666666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.46484375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.46484375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.46666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.8" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.46666666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.46666666666667" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -737,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -766,7 +1377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:9">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
@@ -795,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1">
+    <row r="4" s="3" customFormat="1" spans="1:9">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -824,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1">
+    <row r="5" s="3" customFormat="1" spans="1:9">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -853,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1">
+    <row r="6" s="3" customFormat="1" spans="1:9">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -882,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1">
+    <row r="7" s="4" customFormat="1" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -911,9 +1522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1">
+    <row r="8" s="4" customFormat="1" spans="1:9">
       <c r="A8" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -940,9 +1551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1">
+    <row r="9" s="4" customFormat="1" spans="1:9">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -969,9 +1580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1">
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:9">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -984,42 +1595,41 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6">
         <v>7001</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6">
         <v>3306</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="6">
         <v>123456</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:I6 B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
